--- a/20221219～/Windows Server时间同步/状況整理_JP.xlsx
+++ b/20221219～/Windows Server时间同步/状況整理_JP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GitHub\temp_backup\20221219～\Windows Server时间同步\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B42ED0-AD74-4791-A057-80044D05F7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BA60F-582A-4B6D-BD03-754DFC9A3E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NTPサーバー" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,14 +142,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2697,7 +2708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C553"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A454" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R571" sqref="R571"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2773,7 +2786,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D795D07E-0EAD-49C0-B104-24670E256102}">
   <dimension ref="B2:B314"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="G345" sqref="G345"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2804,7 +2819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376EFC7D-4CBF-4E78-BBB6-43CCEFAFB160}">
   <dimension ref="B2:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2814,13 +2831,16 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{B40E5D92-1A3B-4F5F-BD65-AA50B2A6EB4B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/20221219～/Windows Server时间同步/状況整理_JP.xlsx
+++ b/20221219～/Windows Server时间同步/状況整理_JP.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GitHub\temp_backup\20221219～\Windows Server时间同步\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279BA60F-582A-4B6D-BD03-754DFC9A3E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868F85E2-DF2F-4861-BF0D-FA5AE943A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NTPサーバー" sheetId="1" r:id="rId1"/>
-    <sheet name="Windows Server" sheetId="3" r:id="rId2"/>
+    <sheet name="NTPサーバー(TMP)" sheetId="1" r:id="rId1"/>
+    <sheet name="Windows Server(TMP)" sheetId="3" r:id="rId2"/>
     <sheet name="参照资料_CN" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1. 创建VM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Ubuntu部署NTP服务器和客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 创建VM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,12 +92,86 @@
     <t>3. 时间确认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://www.jianshu.com/p/291110ca60fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Ubuntu 配置NTP服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/caiandyong/article/details/47137673?spm=1001.2101.3001.6650.3&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-3-47137673-blog-8700979.pc_relevant_aa2&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-3-47137673-blog-8700979.pc_relevant_aa2&amp;utm_relevant_index=6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. ubuntu上搭建ntp时间服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/ankang654321/article/details/103542015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>★</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)Ubuntu部署NTP服务器和客户端</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. (★)ubuntu配置ntp时间服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/khbilhjknkjb/article/details/125254285</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. ubuntu系统修改系统时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.51cto.com/zfno111/1944936</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. NTP服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/weixin_45024226/article/details/120123060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 内网使用本机时间作为ntp服务端同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +193,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2708,9 +2785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C553"/>
   <sheetViews>
-    <sheetView topLeftCell="A454" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R571" sqref="R571"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2786,25 +2861,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D795D07E-0EAD-49C0-B104-24670E256102}">
   <dimension ref="B2:B314"/>
   <sheetViews>
-    <sheetView topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="G345" sqref="G345"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B314" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2817,17 +2890,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376EFC7D-4CBF-4E78-BBB6-43CCEFAFB160}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -2835,12 +2906,78 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{B40E5D92-1A3B-4F5F-BD65-AA50B2A6EB4B}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{C75526C1-25E2-4B53-9152-B0BA76E51E5B}"/>
+    <hyperlink ref="C9" r:id="rId3" display="https://blog.csdn.net/caiandyong/article/details/47137673?spm=1001.2101.3001.6650.3&amp;utm_medium=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-3-47137673-blog-8700979.pc_relevant_aa2&amp;depth_1-utm_source=distribute.pc_relevant.none-task-blog-2%7Edefault%7ECTRLIST%7ERate-3-47137673-blog-8700979.pc_relevant_aa2&amp;utm_relevant_index=6" xr:uid="{43184C96-E875-4F5D-976A-1A0C750C0BBE}"/>
+    <hyperlink ref="C12" r:id="rId4" xr:uid="{1C313087-D753-4E6E-92CF-C6744046A595}"/>
+    <hyperlink ref="C15" r:id="rId5" xr:uid="{4301B24E-4EAA-40F7-A1BC-151CEAD541F9}"/>
+    <hyperlink ref="C18" r:id="rId6" xr:uid="{B633CD9E-DE36-45FC-BCD7-8590B1653AB2}"/>
+    <hyperlink ref="C21" r:id="rId7" xr:uid="{7E3F30F7-9E16-4BB1-984B-0D9F6B4F0F93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>